--- a/ACL.xlsx
+++ b/ACL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Study\Collage Study\רשתות תקשורת\פרויקט גמר\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B085AC-0DFB-4812-A598-900739C120D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B6E16-24DE-41FB-A498-68ACA01451EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="39">
   <si>
     <t>ip</t>
   </si>
@@ -507,16 +507,16 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60</v>
       </c>
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -624,7 +624,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -635,6 +635,21 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
       <c r="Q3" t="s">
         <v>15</v>
       </c>
@@ -645,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -657,6 +672,9 @@
       </c>
       <c r="D4" t="s">
         <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -667,6 +685,21 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
       <c r="Q4" t="s">
         <v>16</v>
       </c>
@@ -677,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -685,6 +718,12 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
       <c r="G5" t="s">
@@ -696,6 +735,21 @@
       <c r="I5" t="s">
         <v>11</v>
       </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
       <c r="Q5" t="s">
         <v>17</v>
       </c>
@@ -706,12 +760,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
@@ -722,6 +785,21 @@
       <c r="I6" t="s">
         <v>12</v>
       </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
       <c r="Q6" t="s">
         <v>18</v>
       </c>
@@ -732,7 +810,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
@@ -742,6 +835,21 @@
       <c r="I7" t="s">
         <v>13</v>
       </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
       <c r="Q7" t="s">
         <v>19</v>
       </c>
@@ -752,7 +860,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
@@ -762,6 +885,21 @@
       <c r="I8" t="s">
         <v>14</v>
       </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
       <c r="Q8" t="s">
         <v>20</v>
       </c>
@@ -772,7 +910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -801,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
@@ -821,7 +959,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
@@ -832,7 +985,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" t="s">
         <v>32</v>
       </c>
@@ -843,7 +1008,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
@@ -854,7 +1034,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" t="s">
         <v>34</v>
       </c>
@@ -865,7 +1060,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
       <c r="G18" t="s">
         <v>35</v>
       </c>
@@ -876,7 +1086,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
       <c r="G19" t="s">
         <v>36</v>
       </c>

--- a/ACL.xlsx
+++ b/ACL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Study\Collage Study\רשתות תקשורת\פרויקט גמר\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B6E16-24DE-41FB-A498-68ACA01451EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E203D51A-AC1B-422B-BBD7-E19CC7F6FEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>

--- a/ACL.xlsx
+++ b/ACL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Study\Collage Study\רשתות תקשורת\פרויקט גמר\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E203D51A-AC1B-422B-BBD7-E19CC7F6FEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81EC138-F46A-431F-AFF0-FB4207D5BA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,16 +507,16 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -660,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -742,7 +742,7 @@
         <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
         <v>38</v>
@@ -760,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -795,7 +795,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -810,7 +810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -845,7 +845,7 @@
         <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
         <v>38</v>
@@ -860,7 +860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -895,7 +895,7 @@
         <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
         <v>38</v>
@@ -910,7 +910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -939,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>60</v>
       </c>
@@ -959,7 +959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -985,7 +985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>37</v>
       </c>

--- a/ACL.xlsx
+++ b/ACL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Study\Collage Study\רשתות תקשורת\פרויקט גמר\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81EC138-F46A-431F-AFF0-FB4207D5BA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE70BEA-7105-4A53-8A47-580500927208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="39">
   <si>
     <t>ip</t>
   </si>
@@ -507,7 +507,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,10 +961,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -987,15 +987,18 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
@@ -1036,10 +1039,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -1068,7 +1071,7 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -1094,7 +1097,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>

--- a/ACL.xlsx
+++ b/ACL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Study\Collage Study\רשתות תקשורת\פרויקט גמר\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE70BEA-7105-4A53-8A47-580500927208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACDB5C7-A9B0-4459-8E18-2DEA74F0F272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
+    <workbookView xWindow="4236" yWindow="1392" windowWidth="17280" windowHeight="8964" xr2:uid="{417BBC24-C106-44E6-8C60-10DA30157D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,6 +205,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8F83DD0-5ACB-4051-BA84-0894AB43B513}" name="Table1" displayName="Table1" ref="A1:I8" totalsRowShown="0">
+  <autoFilter ref="A1:I8" xr:uid="{A8F83DD0-5ACB-4051-BA84-0894AB43B513}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{61DA54E8-7D3C-46D2-B15D-9CA52371C63E}" name="support"/>
+    <tableColumn id="2" xr3:uid="{545AC29B-3723-40EC-98A1-2595E70FE39B}" name="PR"/>
+    <tableColumn id="3" xr3:uid="{FA5FCEEF-315C-4C2C-9887-3D26AEC3925E}" name="penTest"/>
+    <tableColumn id="4" xr3:uid="{1F203543-1C2A-4E7F-A01B-EB3EC4ED5A55}" name="guest"/>
+    <tableColumn id="5" xr3:uid="{0A8CEEA5-4106-4F7A-8AFB-DDC15814C7AA}" name="QA"/>
+    <tableColumn id="6" xr3:uid="{34A93932-459E-4CC9-8F18-A252723EFD36}" name="dev"/>
+    <tableColumn id="7" xr3:uid="{F0AD44FB-8868-44C2-A6E6-797794F80938}" name="ip"/>
+    <tableColumn id="8" xr3:uid="{D88F68C8-1BF1-4C37-9C26-C43BF64296C6}" name="vlan"/>
+    <tableColumn id="9" xr3:uid="{FE004679-A3F9-4DB6-8E2F-DB78557ECE10}" name="מקור/יעד"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4543F34-2BD1-4907-B386-3527195F983B}" name="Table2" displayName="Table2" ref="K1:S8" totalsRowShown="0">
+  <autoFilter ref="K1:S8" xr:uid="{D4543F34-2BD1-4907-B386-3527195F983B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{654B0EDA-8DA2-466C-8DC4-1AEE5B65DA77}" name="acounting"/>
+    <tableColumn id="2" xr3:uid="{EC7345AD-87AC-405D-B225-906D86656EA6}" name="HR"/>
+    <tableColumn id="3" xr3:uid="{25D26B5F-CC30-484E-8C0C-873201C7AE31}" name="security"/>
+    <tableColumn id="4" xr3:uid="{B7E8D6BD-0DD3-45D3-BCEE-2E8BFDEA3243}" name="guest"/>
+    <tableColumn id="5" xr3:uid="{600A7538-9C75-419A-98B5-0D8C9412242E}" name="executive"/>
+    <tableColumn id="6" xr3:uid="{3131DAAB-328D-487A-A1AB-8666603ED597}" name="UI"/>
+    <tableColumn id="7" xr3:uid="{C051347A-2DAE-4909-A9C4-991AF3A0E70E}" name="ip"/>
+    <tableColumn id="8" xr3:uid="{B492792B-7D84-4A5C-8588-D6852FC98749}" name="vlan"/>
+    <tableColumn id="9" xr3:uid="{19792C2C-DD5C-4EB0-BAC1-1D4ED04528BE}" name="מקור/יעד"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DDEBEB80-C3D9-46ED-82AD-83AC4CD07321}" name="Table3" displayName="Table3" ref="A12:I19" totalsRowShown="0">
+  <autoFilter ref="A12:I19" xr:uid="{DDEBEB80-C3D9-46ED-82AD-83AC4CD07321}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5FA1B595-3821-4A9E-A43D-FBE9C9713EE3}" name="admin"/>
+    <tableColumn id="2" xr3:uid="{7458E690-260A-4432-88A1-B8753DB42164}" name="cyberSec"/>
+    <tableColumn id="3" xr3:uid="{3862A835-446B-4051-AEC0-FAE3756BE1DD}" name="logistics"/>
+    <tableColumn id="4" xr3:uid="{1261C361-1D9A-4CBC-97A8-54F9F14A0DD5}" name="guest"/>
+    <tableColumn id="5" xr3:uid="{C007C13B-E5A4-45AC-9D43-4A911C37E4C8}" name="legal"/>
+    <tableColumn id="6" xr3:uid="{E091AC0B-281E-4292-99FC-B72FA9F872AB}" name="marketing"/>
+    <tableColumn id="7" xr3:uid="{E2A5C195-8C57-4AFA-BD97-267A0BBFEDC5}" name="ip"/>
+    <tableColumn id="8" xr3:uid="{CB3AEDB9-E32E-4C42-9BD9-C421A9CE8F81}" name="vlan"/>
+    <tableColumn id="9" xr3:uid="{7E5D110F-E69F-4D91-A604-9BDB4CE3F27F}" name="מקור/יעד"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,13 +561,22 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
     <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -1117,5 +1180,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>